--- a/term-document matrix/FOMC2_dictionary_meeting_onlyTF.xlsx
+++ b/term-document matrix/FOMC2_dictionary_meeting_onlyTF.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>acceler</t>
   </si>
   <si>
-    <t>accept</t>
-  </si>
-  <si>
     <t>action</t>
   </si>
   <si>
@@ -34,15 +31,9 @@
     <t>agre</t>
   </si>
   <si>
-    <t>alreadi</t>
-  </si>
-  <si>
     <t>altern</t>
   </si>
   <si>
-    <t>anyth</t>
-  </si>
-  <si>
     <t>appropri</t>
   </si>
   <si>
@@ -52,15 +43,9 @@
     <t>asymmetr</t>
   </si>
   <si>
-    <t>asymmetri</t>
-  </si>
-  <si>
     <t>balanc</t>
   </si>
   <si>
-    <t>basic</t>
-  </si>
-  <si>
     <t>begin</t>
   </si>
   <si>
@@ -70,15 +55,6 @@
     <t>better</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>bluebook</t>
-  </si>
-  <si>
-    <t>borrow</t>
-  </si>
-  <si>
     <t>busi</t>
   </si>
   <si>
@@ -88,9 +64,6 @@
     <t>cannot</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>case</t>
   </si>
   <si>
@@ -136,9 +109,6 @@
     <t>declin</t>
   </si>
   <si>
-    <t>degre</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -157,15 +127,9 @@
     <t>discuss</t>
   </si>
   <si>
-    <t>dollar</t>
-  </si>
-  <si>
     <t>don</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>earlier</t>
   </si>
   <si>
@@ -178,21 +142,12 @@
     <t>effect</t>
   </si>
   <si>
-    <t>either</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
-    <t>enough</t>
-  </si>
-  <si>
     <t>evid</t>
   </si>
   <si>
-    <t>expans</t>
-  </si>
-  <si>
     <t>expect</t>
   </si>
   <si>
@@ -202,9 +157,6 @@
     <t>fairli</t>
   </si>
   <si>
-    <t>fall</t>
-  </si>
-  <si>
     <t>far</t>
   </si>
   <si>
@@ -217,12 +169,6 @@
     <t>feel</t>
   </si>
   <si>
-    <t>financi_market</t>
-  </si>
-  <si>
-    <t>firm</t>
-  </si>
-  <si>
     <t>fund_rate</t>
   </si>
   <si>
@@ -241,12 +187,6 @@
     <t>good</t>
   </si>
   <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>greenbook</t>
-  </si>
-  <si>
     <t>growth</t>
   </si>
   <si>
@@ -271,9 +211,6 @@
     <t>inflat</t>
   </si>
   <si>
-    <t>inform</t>
-  </si>
-  <si>
     <t>interest_rate</t>
   </si>
   <si>
@@ -283,9 +220,6 @@
     <t>issu</t>
   </si>
   <si>
-    <t>judgment</t>
-  </si>
-  <si>
     <t>keep</t>
   </si>
   <si>
@@ -295,24 +229,15 @@
     <t>larg</t>
   </si>
   <si>
-    <t>leav</t>
-  </si>
-  <si>
     <t>let</t>
   </si>
   <si>
     <t>level</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>major</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
@@ -325,18 +250,9 @@
     <t>meet</t>
   </si>
   <si>
-    <t>mention</t>
-  </si>
-  <si>
-    <t>million</t>
-  </si>
-  <si>
     <t>monetari_polici</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>move</t>
   </si>
   <si>
@@ -346,15 +262,6 @@
     <t>next</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>occur</t>
-  </si>
-  <si>
-    <t>outlook</t>
-  </si>
-  <si>
     <t>part</t>
   </si>
   <si>
@@ -388,9 +295,6 @@
     <t>problem</t>
   </si>
   <si>
-    <t>propos</t>
-  </si>
-  <si>
     <t>quarter</t>
   </si>
   <si>
@@ -430,15 +334,6 @@
     <t>reserv</t>
   </si>
   <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>respons</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -472,9 +367,6 @@
     <t>somewhat</t>
   </si>
   <si>
-    <t>staff</t>
-  </si>
-  <si>
     <t>stage</t>
   </si>
   <si>
@@ -499,9 +391,6 @@
     <t>symmetr</t>
   </si>
   <si>
-    <t>take</t>
-  </si>
-  <si>
     <t>target</t>
   </si>
   <si>
@@ -514,9 +403,6 @@
     <t>tighten</t>
   </si>
   <si>
-    <t>tilt</t>
-  </si>
-  <si>
     <t>toward</t>
   </si>
   <si>
@@ -535,36 +421,21 @@
     <t>vote</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
     <t>weak</t>
   </si>
   <si>
-    <t>without</t>
-  </si>
-  <si>
     <t>word</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>world</t>
-  </si>
-  <si>
     <t>ye</t>
   </si>
   <si>
-    <t>area</t>
-  </si>
-  <si>
     <t>increas</t>
   </si>
   <si>
-    <t>interest</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -574,36 +445,18 @@
     <t>announc</t>
   </si>
   <si>
-    <t>assess</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>measur</t>
   </si>
   <si>
-    <t>obvious</t>
-  </si>
-  <si>
     <t>process</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>slow</t>
-  </si>
-  <si>
     <t>basi_point</t>
   </si>
   <si>
-    <t>estim</t>
-  </si>
-  <si>
     <t>price_stabil</t>
   </si>
   <si>
@@ -611,9 +464,6 @@
   </si>
   <si>
     <t>model</t>
-  </si>
-  <si>
-    <t>support_recommend</t>
   </si>
 </sst>
 </file>
@@ -971,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2182,406 +2032,6 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B182">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B192">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B193">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B194">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B195">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B196">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B198">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>199</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
